--- a/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
+++ b/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Eater\Project Eater\Assets\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77172461-E5F5-451E-B0D8-45FA561786A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB5FEB8-B302-48DC-8822-2E5EA9D79644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Baal" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>speakerIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나레이션도 호출할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4974107-D33A-4F52-BFF0-319FE718EE22}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -571,6 +575,17 @@
       </c>
       <c r="D7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A17FF6-E1D2-4D36-A4C3-5EAC1C8A4CE7}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
+++ b/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Eater\Project Eater\Assets\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB5FEB8-B302-48DC-8822-2E5EA9D79644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA77F01D-AC7C-43CF-B116-1C76C60D9A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,36 +52,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>speakerIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>안디</t>
-  </si>
-  <si>
-    <t>바알</t>
-  </si>
-  <si>
-    <t>안녕하세요. 서장원입니다.</t>
-  </si>
-  <si>
-    <t>오늘은 대화 시스템에 대해 알아보도록 하겠습니다.</t>
-  </si>
-  <si>
-    <t>대사를 Dialog에 입력해두면 순차적으로 재생합니다.</t>
-  </si>
-  <si>
-    <t>이렇게 DialogSystem을 여러 개 만들어서 분기를 구분할 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사로 이루어진 분기 사이에 캐릭터를 움직이거나 오브젝트를 생성하는 것과 같이</t>
-  </si>
-  <si>
-    <t>게임 진행에 필요한 여러 행동을 하고, 필요할 때 또 대사를 출력하도록 합니다.</t>
-  </si>
-  <si>
-    <t>speakerIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나레이션도 호출할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데… 죄송하지만 당신은 누구죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(겁먹은 표정으로 고개를 떨군다.)</t>
+  </si>
+  <si>
+    <t>더 이상은 알아서 좋을 것 없어. 너는 있는 대로 먹어 치워서 여길 탈출하는 거야. 그것만 기억해.</t>
+  </si>
+  <si>
+    <t>마인이 가로막고 있다고 하셨는데... 마인에 대해 알려주실 수 있나요?</t>
+  </si>
+  <si>
+    <t>운이 좋지 못한 머저리들이지. 너가 운이 좋은 머저리라고 한다면 말이야.</t>
+  </si>
+  <si>
+    <t>이런 것까지 하나하나 대답해줘야 하나? 꺼져.</t>
+  </si>
+  <si>
+    <t>(카를에게 물어보는 편이 나을 것 같다.)</t>
+  </si>
+  <si>
+    <t>나? [폭식의 악마 바알] 이야.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +111,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -128,8 +145,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,17 +486,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4974107-D33A-4F52-BFF0-319FE718EE22}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -484,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -498,10 +518,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -509,30 +529,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -543,9 +563,9 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -559,33 +579,61 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -612,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -645,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>

--- a/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
+++ b/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Eater\Project Eater\Assets\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA77F01D-AC7C-43CF-B116-1C76C60D9A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9167E74C-B8D3-45D9-99F5-CD1F5E88EF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Baal" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,37 +68,172 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그런데… 죄송하지만 당신은 누구죠?</t>
+    <t>(겁먹은 표정으로 고개를 떨군다.)</t>
+  </si>
+  <si>
+    <t>마인이 가로막고 있다고 하셨는데... 마인에 대해 알려주실 수 있나요?</t>
+  </si>
+  <si>
+    <t>운이 좋지 못한 머저리들이지. 너가 운이 좋은 머저리라고 한다면 말이야.</t>
+  </si>
+  <si>
+    <t>(카를에게 물어보는 편이 나을 것 같다.)</t>
+  </si>
+  <si>
+    <t>더 이상은 알아서 좋을 것 없어.</t>
+  </si>
+  <si>
+    <t>그런데... 죄송하지만 당신은 누구죠?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">나? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>폭식의 악마 바알</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이야.</t>
+    </r>
+  </si>
+  <si>
+    <t>너는 있는 대로 먹어 치워서 여길 탈출하는 거야. 그것만 기억해.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(겁먹은 표정으로 고개를 떨군다.)</t>
-  </si>
-  <si>
-    <t>더 이상은 알아서 좋을 것 없어. 너는 있는 대로 먹어 치워서 여길 탈출하는 거야. 그것만 기억해.</t>
-  </si>
-  <si>
-    <t>마인이 가로막고 있다고 하셨는데... 마인에 대해 알려주실 수 있나요?</t>
-  </si>
-  <si>
-    <t>운이 좋지 못한 머저리들이지. 너가 운이 좋은 머저리라고 한다면 말이야.</t>
-  </si>
-  <si>
-    <t>이런 것까지 하나하나 대답해줘야 하나? 꺼져.</t>
-  </si>
-  <si>
-    <t>(카를에게 물어보는 편이 나을 것 같다.)</t>
-  </si>
-  <si>
-    <t>나? [폭식의 악마 바알] 이야.</t>
+    <t>만약 그 머저리들을 해치운다면 그들의 힘을 취할 수도 있겠지.</t>
+  </si>
+  <si>
+    <t>그런데... 내가 이런 것까지 하나하나 대답해줘야 하나? 꺼져.</t>
+  </si>
+  <si>
+    <t>….결국, 해치웠네. 힘이 돌아오는 게 느껴져.</t>
+  </si>
+  <si>
+    <t>이런 짓을 계속해도 괜찮은 걸까요…</t>
+  </si>
+  <si>
+    <t>아주 좋아. 이렇게만 하라고. 마인을 처치할 때 마다 그들의 기술을 네 것으로 만들 수 있으니.</t>
+  </si>
+  <si>
+    <t>(이제 해방 스킬을 사용할 수 있습니다. 해방 스킬은 마인을 처치할 때 마다 얻을 수 있으며 하나의 스테이지에서 하나의 스킬만 사용할 수 있습니다.)</t>
+  </si>
+  <si>
+    <t>(바알을 통해 해방 스킬을 강화할 수 있습니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카를</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 하루군.</t>
+  </si>
+  <si>
+    <t>…제 몸에 뭘 집어넣으신 거죠?</t>
+  </si>
+  <si>
+    <t>자네와 함께하고 계신 분은 ‘무엇’이라고 불려도 되는 분이 아니라네.</t>
+  </si>
+  <si>
+    <t>이 더러운 세상에서 오직 유일하게 아름답고 가장 고귀한 최강의 악마 바알 님이시지. 정확히는 그녀의 일부지만 말 일세.</t>
+  </si>
+  <si>
+    <t>만약 나도 조건만 되었다면 내 누추한 몸에 그녀를 모시고 싶었네만… 조건에 맞지 않아서 말이지. 자네는 정말 축복받은 사람이야.</t>
+  </si>
+  <si>
+    <t>설마 이 안에 다른 사람들도 있나요…?</t>
+  </si>
+  <si>
+    <t>물론 자네 말고도 사람이 있고, 있었네.</t>
+  </si>
+  <si>
+    <t>대부분은 나와 함께한 동료로서 자네처럼 실험체로서 함께했지.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">그들 또한 나의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>위대한 과업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에 일조하였으나… 고귀하신 바알님의 옥체를 담기엔 그들의 그릇이 너무나 작았던 거야.</t>
+    </r>
+  </si>
+  <si>
+    <t>그렇게 그들은 힘을 주체하지 못하고 이성을 잃은 마인이 되었다네. 자네와는 달리 일종의 ‘실패작’인 셈이지.</t>
+  </si>
+  <si>
+    <t>그들이 있기에 자네가 있는 것이야. 감사하지 않나? 어쩌면 자네와 마주칠 일이 있을지 모르겠군.</t>
+  </si>
+  <si>
+    <t>저를 언제까지 가둬둘 속셈이죠? 빨리 나갈 수 있는 방법을 알려주세요.</t>
+  </si>
+  <si>
+    <t>언제든 가도 좋네... 라고 하고 싶지만 지금은 보내줄 수 없다네.</t>
+  </si>
+  <si>
+    <t>자네는 자네가 이해조차 할 수 없는 너무나도 고귀한 과업의 중요한 톱니바퀴이기 때문일세.</t>
+  </si>
+  <si>
+    <t>물론 내가 보내준다고 해서 갈 수 있는 것도 아니니, 너무 서운해 말게나.</t>
+  </si>
+  <si>
+    <t>도대체 여긴 무슨 짓을 하는 곳이죠...?</t>
+  </si>
+  <si>
+    <t>보이는 그대로 나의 실험실일세.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자네는 지금 나와 역사적인 사건에 함께하고 있지. 영광으로 생각하게.</t>
+  </si>
+  <si>
+    <t>무엇을 해야 하는지는 그저 본능에 따라서 행동하게. 나는 자네의 경과를 관찰해야 하니.</t>
+  </si>
+  <si>
+    <t>(계약에 관해선 이야기하지 않는 편이 나을 것 같다.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +252,31 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -145,11 +305,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,17 +649,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4974107-D33A-4F52-BFF0-319FE718EE22}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="129.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -537,8 +700,8 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -551,8 +714,8 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -566,7 +729,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -580,21 +743,21 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -602,13 +765,13 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -622,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -630,10 +793,102 @@
         <v>3</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -677,15 +932,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A17FF6-E1D2-4D36-A4C3-5EAC1C8A4CE7}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="105.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -702,6 +958,283 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
+++ b/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Eater\Project Eater\Assets\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9167E74C-B8D3-45D9-99F5-CD1F5E88EF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2E7935-A5C1-44EF-902E-4E4F9C29B7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Baal" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,125 @@
   </si>
   <si>
     <t>(계약에 관해선 이야기하지 않는 편이 나을 것 같다.)</t>
+  </si>
+  <si>
+    <t>시그마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 카를 박사님의 조수 시그마라고 해요. 과거에는 저도 실험체였어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 자식… 아니… 박사님에게 바알의 눈을 이식받았죠. 단지 운이 좋아서 마인이 되는 것은 피할 수 있었어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(시그마의 표정에서 카를에 대한 증오가 엿보인다.)</t>
+  </si>
+  <si>
+    <t>이곳은 박사님의 자료실이에요. 그가 지금껏 모아온 실험의 결과가 모두 여기에 있죠. 관심이 있으신가요?</t>
+  </si>
+  <si>
+    <t>아… 아니에요… 관심 없어요…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시그마 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전에도 말씀드렸지만, 저도 예전에는 실험체였어요. 그리고 현재도 별반 다르지 않아요.</t>
+  </si>
+  <si>
+    <t>이곳에서 벌어지는 ‘실험’은 모두 제 의지와는 전혀 무관해요. 그 말은, 그를 돕는 것 또한 그렇죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 고를 수 있는 선택지는 이것뿐이니까요.</t>
+  </si>
+  <si>
+    <t>(시그마의 표정에서 묘한 슬픔이 엿보인다.)</t>
+  </si>
+  <si>
+    <t>시그마도 탈출하고 싶지 않으신가요? 제가 도움이 될 수 있어요.</t>
+  </si>
+  <si>
+    <t>탈출…이요? 여길 벗어나는 것은 불가능에 가까워요. 마인들이…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그마, 제게 나갈 방법이 있어요. 지금은 그게 뭔지 말씀드릴 순 없지만, 꼭 나갈 수 있어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(시그마의 표정이 일순간 변했다.)</t>
+  </si>
+  <si>
+    <t>다시 반복할 수는 없어…</t>
+  </si>
+  <si>
+    <t>(시그마가 작게 읊조린다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">…그게 무엇이든 마음껏 발버둥 쳐 보시죠. 달라지는 것은 없을 거예요. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 당신이 실험에서 살아남는다면 모르겠지만요.</t>
+  </si>
+  <si>
+    <t>만약 당신이 실험에서 살아남는다면 모르겠지만요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 ‘실험’을 견뎌내셨군요.</t>
+  </si>
+  <si>
+    <t>(시그마가 고민한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">…불가능에 가깝다고 했지만, 아예 방법이 없는 건 아니에요. </t>
+  </si>
+  <si>
+    <t>제가 실험체였을 때, 이곳에서 탈출하기 위해 온갖 방법을 다 시도했어요. 결과는 제 힘이 너무 부족해서 실패했지만요. 하지만 당신에게는 그럴 힘이 있어요.</t>
+  </si>
+  <si>
+    <t>카를과 대화해 보신 적이 있으신가요? 카를은 누구든 정중하게 대하지만 머릿속에는 실험체들을 이용할 생각밖에 없어요. 혹시라도 그 자식을 신뢰하지 마시길.</t>
+  </si>
+  <si>
+    <t>역시 저를 납치해 실험을 한 사람이 좋은 사람일 리 없겠죠…</t>
+  </si>
+  <si>
+    <t>그뿐만 아니라 그 자식은 우리의 몸에 ‘각혈 충’을 이식했어요. 아마 당신의 몸에도 ‘각혈 충’ 이 있을 거에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 발현하지 않았지만, 당신이 카를의 의지에 반하는 행동을 했다간 ‘각혈 충’들이 즉시 반응해 무사하지 못할 거예요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 듣는 이야기인데… 그렇다면 어떻게 해야 하죠?</t>
+  </si>
+  <si>
+    <t>방법이 있어요. 하지만, 지금 당장 해결할 수는 없어요.</t>
+  </si>
+  <si>
+    <t>당신에게 의뢰를 드릴게요. 이 실험체들을 처치하고 그 정보를 제게 제공한다면 제가 치료제를 만들 수 있어요.</t>
+  </si>
+  <si>
+    <t>(이제부터 시그마를 통해 [퀘스트]를 수주할 수 있습니다.)</t>
+  </si>
+  <si>
+    <t>(또한 시그마를 통해 [실험체 도감]을 열람할 수 있습니다. 이곳에는 처치한 실험체의 각종 정보가 등록되고, 일정 보상이 지급됩니다.)</t>
+  </si>
+  <si>
+    <t>당신은 이제 당신에게 주어진 일을 하세요. 저는 당신을 전력으로 도울게요.</t>
   </si>
 </sst>
 </file>
@@ -305,7 +424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,6 +433,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4974107-D33A-4F52-BFF0-319FE718EE22}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -871,7 +993,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -882,7 +1004,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -899,15 +1021,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B51D23-38B8-4CED-A28F-4CBC7F33E9F8}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="139.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -922,6 +1045,447 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A17FF6-E1D2-4D36-A4C3-5EAC1C8A4CE7}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>

--- a/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
+++ b/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Eater\Project Eater\Assets\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2E7935-A5C1-44EF-902E-4E4F9C29B7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE46FD3-DD35-40C9-9267-8D635386B68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Baal" sheetId="1" r:id="rId1"/>
-    <sheet name="Sigma" sheetId="2" r:id="rId2"/>
-    <sheet name="Charles" sheetId="3" r:id="rId3"/>
+    <sheet name="Tutorial" sheetId="4" r:id="rId1"/>
+    <sheet name="Baal" sheetId="1" r:id="rId2"/>
+    <sheet name="Sigma" sheetId="2" r:id="rId3"/>
+    <sheet name="Charles" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +347,281 @@
   </si>
   <si>
     <t>당신은 이제 당신에게 주어진 일을 하세요. 저는 당신을 전력으로 도울게요.</t>
+  </si>
+  <si>
+    <t>(당신은 축축하고 어두운 지하에서 눈을 떴다.)</t>
+  </si>
+  <si>
+    <t>(정신을 차린 당신은 주위를 둘러보지만 잘 보이지 않는다.)</t>
+  </si>
+  <si>
+    <t>(연신 소리를 질러 본 당신은 그제야 몸을 움직일 수 없다는 것을 깨닫는다.)</t>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 실험체 상태 … 안정적입 …</t>
+  </si>
+  <si>
+    <t>좋 … 빨리 …</t>
+  </si>
+  <si>
+    <t>(가슴에서부터 피어나는 알 수 없는 위화감에 몸을 내려다본 당신, 가슴에는 이전에 본 적 없던 큰 흉터가 자리 잡았다.)</t>
+  </si>
+  <si>
+    <t>이 흉터는...?</t>
+  </si>
+  <si>
+    <t>(머릿속에서 이상한 목소리가 들려온다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹@#치워. 안...)@. 삼켜. 식욕을 받$#아들&amp;*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(목소리가 들리자 배를 불로 태우는 듯한 허기가 느껴진다.)</t>
+  </si>
+  <si>
+    <t>(코첼라의 스킬 ‘바알의 파편’을 흡수했습니다. 숫자 키 1번을 눌러 스킬을 사용할 수 있습니다.)</t>
+  </si>
+  <si>
+    <t>(눈앞이 캄캄해진다…)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">약하네, 그것도 엄청. 그래도 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">그 머저리들보다는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>괜찮을지도 모르겠어.</t>
+    </r>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(제단 앞으로 한 소녀가 보이기 시작한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은... 누구시죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(안디가 허공에 대고 이야기한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카를 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음? 저쪽에는 아무것도 없네만... 그럴 리 없는데 말이지. 한번 확인해 봐야겠군.</t>
+  </si>
+  <si>
+    <t>안디, 지금 기분이 어떠한가? 나는 부러울 지경이네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">흠... 잠시 흥분했나 보군. 나는 카를 박사라고 한다네. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결합 상태는, 안정적이군. 아주 좋은 형태야. 황홀해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시. 이번에야말로 성공했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…무슨 일이 일어난 거죠?</t>
+  </si>
+  <si>
+    <t>(안디가 바알을 빤히 쳐다본다)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">너는 나와 하나가 됐어, 그리고 네가 실험체를 셋이나 집어삼켰어. </t>
+  </si>
+  <si>
+    <t>설명 더 필요해?</t>
+  </si>
+  <si>
+    <t>제 몸이... 조금 달라진 것 같은데…</t>
+  </si>
+  <si>
+    <t>처음에는 정말 보잘것없었는데 이제는 조금은 봐 줄 만해. 너가 얼마나 달라졌는지 봐.</t>
+  </si>
+  <si>
+    <r>
+      <t>(이제 석판을 통해 [능력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 강화할 수 있습니다.)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 또 네 몸에 무슨 일이 일어났는지는 저놈한테 가서ㅡ</t>
+  </si>
+  <si>
+    <t>여기서 빨리 나가야겠어요. 나가는 길이 어디죠?</t>
+  </si>
+  <si>
+    <t>열등하긴, 이 내가 친히 답해주고 있는데 말을 끊다니.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">당장은 못 나가. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마인도 있고 결계도 있고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 넌 여기서 한 발짝도 못 움직여.</t>
+    </r>
+  </si>
+  <si>
+    <t>그럴 수가….</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">그런 너한테 내가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 하나 하지. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">어차피 너는 이제 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">먹지 않으면 죽어버리는 몸이 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">됐으니, 너에겐 반드시 이득인 제안이야. </t>
+    </r>
+  </si>
+  <si>
+    <t>여기서 나가고 싶지? 계속 실험체를 먹어 치워. 그리고 강해지는 거야.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네 몸은 앞으로도 계속 성장할 거야. 아까처럼 실험체를 죽이고 그 고기를 먹는다면 말이야? </t>
+  </si>
+  <si>
+    <t>그렇게만 해 준다면 내가 널 여기서 나가게 해 주지.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(실험체 처치 시 실험체는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[고기]를 떨어트립니다. 이것을 [포식]하면 강해질 수 있습니다.)</t>
+    </r>
+  </si>
+  <si>
+    <t>좋았어. 계약 성립이네. 노력해봐 인간.</t>
   </si>
 </sst>
 </file>
@@ -770,11 +1046,595 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C334EFD0-F5E9-4DEF-A9BE-DEE2B00DA0C5}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4974107-D33A-4F52-BFF0-319FE718EE22}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1019,7 +1879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B51D23-38B8-4CED-A28F-4CBC7F33E9F8}">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -1494,7 +2354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A17FF6-E1D2-4D36-A4C3-5EAC1C8A4CE7}">
   <dimension ref="A1:D21"/>
   <sheetViews>

--- a/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
+++ b/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Eater\Project Eater\Assets\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE46FD3-DD35-40C9-9267-8D635386B68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11D6AF0-C6F0-4C7E-97CD-294EA5E552CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,15 +349,6 @@
     <t>당신은 이제 당신에게 주어진 일을 하세요. 저는 당신을 전력으로 도울게요.</t>
   </si>
   <si>
-    <t>(당신은 축축하고 어두운 지하에서 눈을 떴다.)</t>
-  </si>
-  <si>
-    <t>(정신을 차린 당신은 주위를 둘러보지만 잘 보이지 않는다.)</t>
-  </si>
-  <si>
-    <t>(연신 소리를 질러 본 당신은 그제야 몸을 움직일 수 없다는 것을 깨닫는다.)</t>
-  </si>
-  <si>
     <t>???</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,79 +359,25 @@
     <t>좋 … 빨리 …</t>
   </si>
   <si>
-    <t>(가슴에서부터 피어나는 알 수 없는 위화감에 몸을 내려다본 당신, 가슴에는 이전에 본 적 없던 큰 흉터가 자리 잡았다.)</t>
-  </si>
-  <si>
     <t>이 흉터는...?</t>
   </si>
   <si>
-    <t>(머릿속에서 이상한 목소리가 들려온다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>먹@#치워. 안...)@. 삼켜. 식욕을 받$#아들&amp;*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(목소리가 들리자 배를 불로 태우는 듯한 허기가 느껴진다.)</t>
-  </si>
-  <si>
-    <t>(코첼라의 스킬 ‘바알의 파편’을 흡수했습니다. 숫자 키 1번을 눌러 스킬을 사용할 수 있습니다.)</t>
-  </si>
-  <si>
-    <t>(눈앞이 캄캄해진다…)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">약하네, 그것도 엄청. 그래도 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">그 머저리들보다는 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>괜찮을지도 모르겠어.</t>
-    </r>
-  </si>
-  <si>
     <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(제단 앞으로 한 소녀가 보이기 시작한다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>당신은... 누구시죠?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(안디가 허공에 대고 이야기한다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">카를 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>음? 저쪽에는 아무것도 없네만... 그럴 리 없는데 말이지. 한번 확인해 봐야겠군.</t>
-  </si>
-  <si>
     <t>안디, 지금 기분이 어떠한가? 나는 부러울 지경이네.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,9 +397,6 @@
     <t>…무슨 일이 일어난 거죠?</t>
   </si>
   <si>
-    <t>(안디가 바알을 빤히 쳐다본다)</t>
-  </si>
-  <si>
     <t xml:space="preserve">너는 나와 하나가 됐어, 그리고 네가 실험체를 셋이나 집어삼켰어. </t>
   </si>
   <si>
@@ -470,40 +404,6 @@
   </si>
   <si>
     <t>제 몸이... 조금 달라진 것 같은데…</t>
-  </si>
-  <si>
-    <t>처음에는 정말 보잘것없었는데 이제는 조금은 봐 줄 만해. 너가 얼마나 달라졌는지 봐.</t>
-  </si>
-  <si>
-    <r>
-      <t>(이제 석판을 통해 [능력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 강화할 수 있습니다.)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐, 또 네 몸에 무슨 일이 일어났는지는 저놈한테 가서ㅡ</t>
   </si>
   <si>
     <t>여기서 빨리 나가야겠어요. 나가는 길이 어디죠?</t>
@@ -569,6 +469,166 @@
     </r>
   </si>
   <si>
+    <t>완벽해. 이번 실험은 여기까지 하세.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">약하네, 그것도 엄청. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">그래도 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">그 머저리들보다는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>괜찮을지도 모르겠어.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번 확인해 봐야겠군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너가 얼마나 달라졌는지 봐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게만 해 준다면 내가 널 여기서 나가게 해 주지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋았어. 계약 성립이네. 노력해봐 인간.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 축축하고 어두운 지하에서 눈을 떴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머릿속에서 이상한 목소리가 들려온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈앞이 캄캄해진다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제단 앞으로 한 소녀가 보이기 시작한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안디가 허공에 대고 이야기한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안디가 바알을 빤히 쳐다본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이제 석판을 통해 [능력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 강화할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신을 차린 당신은 주위를 둘러보지만 잘 보이지    않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연신 소리를 질러 본 당신은 그제야 몸을 움직일 수   없다는 것을 깨닫는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코첼라의 스킬 ‘바알의 파편’을 흡수했습니다. 숫자 키 1번을 눌러 스킬을 사용할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴에서부터 피어나는 알 수 없는 위화감에 몸을    내려다본 당신, 가슴에는 이전에 본 적 없던 큰 흉터가 자리 잡았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 왼쪽에서 스산한 기운이 느껴진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 또 네 몸에 무슨 일이 일어났는지는 저놈한테   가서ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목소리가 들리자 배를 불로 태우는 듯한 허기가         느껴진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음에는 정말 보잘것없었는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제는 조금 볼 만하네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">실험체 처치 시 실험체는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[고기]를 떨어트립니다.    이것을 [포식]하면 강해질 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음? 저쪽에는 아무것도 없네만... 그럴 리 없는데      말이지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">어차피 너는 이제 </t>
     </r>
@@ -581,7 +641,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">먹지 않으면 죽어버리는 몸이 </t>
+      <t xml:space="preserve">먹지 않으면 죽어버리는 몸이       </t>
     </r>
     <r>
       <rPr>
@@ -594,34 +654,15 @@
       </rPr>
       <t xml:space="preserve">됐으니, 너에겐 반드시 이득인 제안이야. </t>
     </r>
-  </si>
-  <si>
-    <t>여기서 나가고 싶지? 계속 실험체를 먹어 치워. 그리고 강해지는 거야.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네 몸은 앞으로도 계속 성장할 거야. 아까처럼 실험체를 죽이고 그 고기를 먹는다면 말이야? </t>
-  </si>
-  <si>
-    <t>그렇게만 해 준다면 내가 널 여기서 나가게 해 주지.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(실험체 처치 시 실험체는 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[고기]를 떨어트립니다. 이것을 [포식]하면 강해질 수 있습니다.)</t>
-    </r>
-  </si>
-  <si>
-    <t>좋았어. 계약 성립이네. 노력해봐 인간.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기서 나가고 싶지? 계속 실험체를 먹어 치워.       그리고 강해지는 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네 몸은 앞으로도 계속 성장할 거야. 아까처럼          실험체를 죽이고 그 고기를 먹는다면 말이야? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1047,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C334EFD0-F5E9-4DEF-A9BE-DEE2B00DA0C5}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1082,7 +1123,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -1093,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1104,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1115,10 +1156,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1129,10 +1170,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1143,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1157,18 +1198,18 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1176,13 +1217,10 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>87</v>
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -1190,71 +1228,71 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>100</v>
@@ -1262,16 +1300,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1284,8 +1322,8 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
-        <v>98</v>
+      <c r="D18" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1293,13 +1331,13 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1307,54 +1345,57 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>94</v>
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1363,46 +1404,46 @@
         <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1416,7 +1457,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1424,29 +1465,29 @@
         <v>8</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1455,12 +1496,12 @@
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1469,12 +1510,12 @@
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1483,12 +1524,12 @@
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1497,21 +1538,21 @@
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1519,13 +1560,10 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1539,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1547,13 +1585,13 @@
         <v>9</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>116</v>
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1567,7 +1605,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1581,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1589,10 +1627,13 @@
         <v>9</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1600,13 +1641,13 @@
         <v>9</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1620,7 +1661,88 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
+++ b/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Eater\Project Eater\Assets\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11D6AF0-C6F0-4C7E-97CD-294EA5E552CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420ADAC5-B130-45AD-98EA-6F7C8CDC8122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="128">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,31 +572,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정신을 차린 당신은 주위를 둘러보지만 잘 보이지    않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연신 소리를 질러 본 당신은 그제야 몸을 움직일 수   없다는 것을 깨닫는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코첼라의 스킬 ‘바알의 파편’을 흡수했습니다. 숫자 키 1번을 눌러 스킬을 사용할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가슴에서부터 피어나는 알 수 없는 위화감에 몸을    내려다본 당신, 가슴에는 이전에 본 적 없던 큰 흉터가 자리 잡았다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>갑자기 왼쪽에서 스산한 기운이 느껴진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐, 또 네 몸에 무슨 일이 일어났는지는 저놈한테   가서ㅡ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목소리가 들리자 배를 불로 태우는 듯한 허기가         느껴진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -622,10 +602,6 @@
       </rPr>
       <t>[고기]를 떨어트립니다.    이것을 [포식]하면 강해질 수 있습니다.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음? 저쪽에는 아무것도 없네만... 그럴 리 없는데      말이지.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -662,6 +638,47 @@
   </si>
   <si>
     <t xml:space="preserve">네 몸은 앞으로도 계속 성장할 거야. 아까처럼          실험체를 죽이고 그 고기를 먹는다면 말이야? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신을 차린 당신은 주위를 둘러보지만 잘 보이지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연신 소리를 질러 본 당신은 그제야 몸을 움직일 수 없다는 것을 깨닫는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴에서부터 피어나는 알 수 없는 위화감에 몸을 내려다본 당신, 가슴에는 이전에 본 적 없던 큰 흉터가 자리 잡았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목소리가 들리자 배를 불로 태우는 듯한 허기가 느껴진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음? 저쪽에는 아무것도 없네만... 그럴 리 없는데 말이지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 또 네 몸에 무슨 일이 일어났는지는 저놈한테 가서ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">실험체 처치 시 실험체는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[고기]를 떨어트립니다. 이것을 [포식]하면 강해질 수 있습니다.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C334EFD0-F5E9-4DEF-A9BE-DEE2B00DA0C5}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1134,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1145,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1184,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1209,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1245,7 +1262,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -1256,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -1429,7 +1446,7 @@
         <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1524,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1538,7 +1555,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1577,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1661,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1675,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1689,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -1714,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">

--- a/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
+++ b/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Eater\Project Eater\Assets\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420ADAC5-B130-45AD-98EA-6F7C8CDC8122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD452C08-21E2-4B97-8FE9-D06089D527B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial" sheetId="4" r:id="rId1"/>
     <sheet name="Baal" sheetId="1" r:id="rId2"/>
     <sheet name="Sigma" sheetId="2" r:id="rId3"/>
     <sheet name="Charles" sheetId="3" r:id="rId4"/>
+    <sheet name="Events" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="128">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,23 +590,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">실험체 처치 시 실험체는 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[고기]를 떨어트립니다.    이것을 [포식]하면 강해질 수 있습니다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">어차피 너는 이제 </t>
     </r>
     <r>
@@ -680,6 +664,9 @@
       <t>[고기]를 떨어트립니다. 이것을 [포식]하면 강해질 수 있습니다.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래쪽 어둠 속에서, 짐승 같은 울음소리가 메아리친다...</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C334EFD0-F5E9-4DEF-A9BE-DEE2B00DA0C5}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1151,7 +1138,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1162,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1201,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1262,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -1446,7 +1433,7 @@
         <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1594,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1678,7 +1665,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1692,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1706,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -1731,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -2802,4 +2789,49 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF15F095-BAEA-4AB1-81D9-15B9E69FDC66}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
+++ b/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Eater\Project Eater\Assets\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD452C08-21E2-4B97-8FE9-D06089D527B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF5E94B-EFEF-4283-B2BC-4D82BC26F62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
   </bookViews>
@@ -324,10 +324,6 @@
     <t>역시 저를 납치해 실험을 한 사람이 좋은 사람일 리 없겠죠…</t>
   </si>
   <si>
-    <t>그뿐만 아니라 그 자식은 우리의 몸에 ‘각혈 충’을 이식했어요. 아마 당신의 몸에도 ‘각혈 충’ 이 있을 거에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지금은 발현하지 않았지만, 당신이 카를의 의지에 반하는 행동을 했다간 ‘각혈 충’들이 즉시 반응해 무사하지 못할 거예요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,12 +335,6 @@
   </si>
   <si>
     <t>당신에게 의뢰를 드릴게요. 이 실험체들을 처치하고 그 정보를 제게 제공한다면 제가 치료제를 만들 수 있어요.</t>
-  </si>
-  <si>
-    <t>(이제부터 시그마를 통해 [퀘스트]를 수주할 수 있습니다.)</t>
-  </si>
-  <si>
-    <t>(또한 시그마를 통해 [실험체 도감]을 열람할 수 있습니다. 이곳에는 처치한 실험체의 각종 정보가 등록되고, 일정 보상이 지급됩니다.)</t>
   </si>
   <si>
     <t>당신은 이제 당신에게 주어진 일을 하세요. 저는 당신을 전력으로 도울게요.</t>
@@ -667,6 +657,17 @@
   </si>
   <si>
     <t>아래쪽 어둠 속에서, 짐승 같은 울음소리가 메아리친다...</t>
+  </si>
+  <si>
+    <t>그뿐만 아니라 그 자식은 우리의 몸에 ‘각혈충’을 이식했어요. 아마 당신의 몸에도 ‘각혈충’ 이 있을 거에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이제부터 시그마를 통해 [실험체 도감]을 열람할 수 있습니다. 이곳에는 처치한 실험체의 각종 정보가 등록되고, 일정 보상이 지급됩니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낯선 기운이 재단 쪽에서 퍼져온다... 바알이 무언가 전하려는 듯하다.</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1128,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -1138,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1149,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1160,10 +1161,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1174,10 +1175,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1188,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1202,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -1213,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1224,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -1235,10 +1236,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -1249,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -1260,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -1271,10 +1272,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -1285,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -1299,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1313,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1327,7 +1328,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1341,7 +1342,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1355,7 +1356,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1369,7 +1370,7 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1383,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1394,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1408,7 +1409,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1419,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1430,10 +1431,10 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1444,10 +1445,10 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1461,7 +1462,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1472,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1486,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1500,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1514,7 +1515,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1528,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1542,7 +1543,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1556,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1567,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1581,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1595,7 +1596,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1609,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1623,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1637,7 +1638,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1651,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1665,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1679,7 +1680,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1693,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -1707,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1718,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -1732,7 +1733,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -1746,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1761,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2007,10 +2008,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B51D23-38B8-4CED-A28F-4CBC7F33E9F8}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2379,7 +2380,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -2393,7 +2394,7 @@
         <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -2407,7 +2408,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -2421,7 +2422,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -2435,7 +2436,7 @@
         <v>43</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -2446,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -2454,24 +2455,13 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2793,16 +2783,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF15F095-BAEA-4AB1-81D9-15B9E69FDC66}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -2827,6 +2817,17 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>127</v>
       </c>
     </row>

--- a/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
+++ b/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Eater\Project Eater\Assets\Scripts\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Won\Documents\GitHub\Eater\Project Eater\Assets\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF5E94B-EFEF-4283-B2BC-4D82BC26F62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CFF6F9-B21C-4251-A1FE-B9B782EB9077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15435" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial" sheetId="4" r:id="rId1"/>
@@ -347,9 +347,6 @@
     <t>… 실험체 상태 … 안정적입 …</t>
   </si>
   <si>
-    <t>좋 … 빨리 …</t>
-  </si>
-  <si>
     <t>이 흉터는...?</t>
   </si>
   <si>
@@ -668,6 +665,10 @@
   </si>
   <si>
     <t>낯선 기운이 재단 쪽에서 퍼져온다... 바알이 무언가 전하려는 듯하다.</t>
+  </si>
+  <si>
+    <t>좋아 … 빨리 …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1095,18 +1096,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C334EFD0-F5E9-4DEF-A9BE-DEE2B00DA0C5}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="103.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1128,10 +1129,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1139,21 +1140,21 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1178,10 +1179,10 @@
         <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1189,10 +1190,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1203,10 +1204,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1214,10 +1215,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1225,10 +1226,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1239,10 +1240,10 @@
         <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1250,10 +1251,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1261,10 +1262,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1275,10 +1276,10 @@
         <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1286,10 +1287,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1300,10 +1301,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1314,10 +1315,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1328,10 +1329,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1342,10 +1343,10 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1356,10 +1357,10 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1370,10 +1371,10 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1384,10 +1385,10 @@
         <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1395,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7</v>
       </c>
@@ -1409,10 +1410,10 @@
         <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>7</v>
       </c>
@@ -1420,10 +1421,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1431,13 +1432,13 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1445,13 +1446,13 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8</v>
       </c>
@@ -1462,10 +1463,10 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8</v>
       </c>
@@ -1473,10 +1474,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>8</v>
       </c>
@@ -1487,10 +1488,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1501,10 +1502,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8</v>
       </c>
@@ -1515,10 +1516,10 @@
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1529,10 +1530,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>8</v>
       </c>
@@ -1543,10 +1544,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8</v>
       </c>
@@ -1557,10 +1558,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>9</v>
       </c>
@@ -1568,10 +1569,10 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1582,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9</v>
       </c>
@@ -1596,10 +1597,10 @@
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>9</v>
       </c>
@@ -1610,10 +1611,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>9</v>
       </c>
@@ -1624,10 +1625,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>9</v>
       </c>
@@ -1638,10 +1639,10 @@
         <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>9</v>
       </c>
@@ -1652,10 +1653,10 @@
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>9</v>
       </c>
@@ -1666,10 +1667,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>9</v>
       </c>
@@ -1680,10 +1681,10 @@
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9</v>
       </c>
@@ -1694,10 +1695,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1708,10 +1709,10 @@
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9</v>
       </c>
@@ -1719,10 +1720,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>9</v>
       </c>
@@ -1733,10 +1734,10 @@
         <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>9</v>
       </c>
@@ -1747,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1764,14 +1765,14 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="129.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="129.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1799,7 +1800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1883,7 +1884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1925,7 +1926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1989,7 +1990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -2014,13 +2015,13 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="139.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="139.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2062,7 +2063,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -2260,7 +2261,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>7</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>7</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7</v>
       </c>
@@ -2380,10 +2381,10 @@
         <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>7</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>7</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8</v>
       </c>
@@ -2447,10 +2448,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8</v>
       </c>
@@ -2478,13 +2479,13 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="105.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="105.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -2736,7 +2737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -2750,7 +2751,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -2785,17 +2786,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF15F095-BAEA-4AB1-81D9-15B9E69FDC66}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2817,10 +2818,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2828,7 +2829,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
+++ b/Project Eater/Assets/Scripts/Dialog/DialogDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Won\Documents\GitHub\Eater\Project Eater\Assets\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CFF6F9-B21C-4251-A1FE-B9B782EB9077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A340D-6D7D-4BB6-9BBE-91FAB3731D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15435" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{809BE630-E710-4BC9-B38C-E1ED53B16EC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="135">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,6 +668,34 @@
   </si>
   <si>
     <t>좋아 … 빨리 …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 눈으로 묻지 마. 짜증나니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데... 생각보다 잘 버티고 있어서, 조금 놀랐어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어차피 네가 멈출 수는 없다는 거, 알잖아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러니까 계속 가. 지금처럼.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 같은 게 그런 걸 이해할 필요는 없지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한마디로 말하면, '먹어치운 자의 기억'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너한테선 그런 것조차 아깝지만, 뭐 써먹을 수는 있겠지.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1096,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C334EFD0-F5E9-4DEF-A9BE-DEE2B00DA0C5}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1759,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4974107-D33A-4F52-BFF0-319FE718EE22}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1999,6 +2027,104 @@
       </c>
       <c r="D17" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
